--- a/com.crm.demo/src/test/resources/TestData/crmExcel.xlsx
+++ b/com.crm.demo/src/test/resources/TestData/crmExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t xml:space="preserve">Tc_ID</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">QA engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumitofficial021995@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -427,27 +430,27 @@
   </sheetPr>
   <dimension ref="A2:O12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:O12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="9.12"/>
   </cols>
   <sheetData>
     <row r="2" s="4" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,7 +716,7 @@
   <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="1" sqref="A2:O12 F16"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -728,7 +731,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="9" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="9" width="9.12"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,10 +931,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="A2:O12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -940,11 +943,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -957,8 +961,11 @@
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
         <v>44</v>
       </c>
@@ -971,8 +978,14 @@
       <c r="D3" s="18" t="s">
         <v>45</v>
       </c>
+      <c r="E3" s="18" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="Sumitofficial021995@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
